--- a/data/trans_orig/Q25_A_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4038</v>
+        <v>4335</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18381</v>
+        <v>18018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09656714406216672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04227150609543262</v>
+        <v>0.04537065681825723</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1924004483140664</v>
+        <v>0.1885958598730992</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6244</v>
+        <v>7353</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05502654867378664</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.164018525871631</v>
+        <v>0.1931632868118955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>11320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5501</v>
+        <v>5361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19247</v>
+        <v>20484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08473123773871918</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04117176604400789</v>
+        <v>0.04012284588062089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1440582617012703</v>
+        <v>0.1533236095858794</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>25600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17806</v>
+        <v>17672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35316</v>
+        <v>35084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2679667190312709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1863758008424017</v>
+        <v>0.1849750388441225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3696608175881869</v>
+        <v>0.3672380806166487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -836,19 +836,19 @@
         <v>10142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5838</v>
+        <v>5886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16615</v>
+        <v>16484</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2664288895509442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1533640548111229</v>
+        <v>0.1546295393874512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4364575645943224</v>
+        <v>0.4330254190868721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -857,19 +857,19 @@
         <v>35743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25429</v>
+        <v>26168</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46443</v>
+        <v>47309</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.267528554736792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1903336159411266</v>
+        <v>0.1958660953910999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3476164446847313</v>
+        <v>0.3540979767819747</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>37805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28280</v>
+        <v>28696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47144</v>
+        <v>46922</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3957121393405922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2960158529693361</v>
+        <v>0.3003659609110503</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4934647437984745</v>
+        <v>0.4911418072825008</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -907,19 +907,19 @@
         <v>13550</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8251</v>
+        <v>8429</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19394</v>
+        <v>19713</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3559580092082935</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.216753207701524</v>
+        <v>0.2214335785765388</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5094618864505498</v>
+        <v>0.5178382728642018</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -928,19 +928,19 @@
         <v>51355</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41191</v>
+        <v>39977</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63143</v>
+        <v>63114</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3843852395738245</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3083126642698714</v>
+        <v>0.2992233518527724</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4726156303527415</v>
+        <v>0.4723981385655805</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>22905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15193</v>
+        <v>15800</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31765</v>
+        <v>31923</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2397539975659702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1590273143355443</v>
+        <v>0.165387770744367</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3324896315991424</v>
+        <v>0.3341470659841702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -978,19 +978,19 @@
         <v>12280</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7264</v>
+        <v>7147</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18432</v>
+        <v>18198</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3225865525669757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1908096226755061</v>
+        <v>0.1877361442811284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4841876451755789</v>
+        <v>0.4780619232943676</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -999,19 +999,19 @@
         <v>35185</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25530</v>
+        <v>25407</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46542</v>
+        <v>46074</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2633549679506643</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1910883385414531</v>
+        <v>0.1901711837472348</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3483639433522062</v>
+        <v>0.344858879575822</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>12385</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6541</v>
+        <v>6800</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20352</v>
+        <v>19774</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1550393529979308</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08188315996922965</v>
+        <v>0.08511753876467824</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2547733544350393</v>
+        <v>0.2475352493529955</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5674</v>
+        <v>6176</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02830970172399901</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1402095444839958</v>
+        <v>0.1526017843577184</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -1145,19 +1145,19 @@
         <v>13531</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7603</v>
+        <v>7510</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21664</v>
+        <v>22609</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1124247241300958</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06316862657525396</v>
+        <v>0.06239482506107501</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1799975117392278</v>
+        <v>0.1878501171424855</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>15706</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8736</v>
+        <v>9001</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24361</v>
+        <v>24351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1966136887733049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1093593747333094</v>
+        <v>0.1126748828012553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3049560850171516</v>
+        <v>0.3048344426469521</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1195,19 +1195,19 @@
         <v>5138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1188</v>
+        <v>1566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11937</v>
+        <v>11742</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1269628258591146</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02934770736696128</v>
+        <v>0.0386865345112515</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2949488439115373</v>
+        <v>0.2901429421464753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1216,19 +1216,19 @@
         <v>20845</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13244</v>
+        <v>13500</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31338</v>
+        <v>31222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1731926058335524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1100419916813409</v>
+        <v>0.1121662759010839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2603830860780612</v>
+        <v>0.2594179733346303</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>26919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19381</v>
+        <v>18660</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36481</v>
+        <v>35652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3369726449435289</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2426080361563152</v>
+        <v>0.2335851115931284</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4566696716491983</v>
+        <v>0.446301904284714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1266,19 +1266,19 @@
         <v>18810</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12646</v>
+        <v>12430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25151</v>
+        <v>25118</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4647810878508161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3124812509219679</v>
+        <v>0.3071279041860829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6214560704718674</v>
+        <v>0.6206364033913875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -1287,19 +1287,19 @@
         <v>45729</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35934</v>
+        <v>35465</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57752</v>
+        <v>56265</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3799500326812814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2985691755240025</v>
+        <v>0.2946680545594376</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4798506698461086</v>
+        <v>0.4674880256483995</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>24874</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16735</v>
+        <v>17416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33826</v>
+        <v>34634</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3113743132852355</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2094934014782719</v>
+        <v>0.2180199904291834</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4234402636516141</v>
+        <v>0.4335568908148046</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1337,19 +1337,19 @@
         <v>15377</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9647</v>
+        <v>9819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22172</v>
+        <v>21618</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3799463845660702</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.238361188311589</v>
+        <v>0.2426226768896104</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5478547981659049</v>
+        <v>0.5341659965284262</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>39</v>
@@ -1358,19 +1358,19 @@
         <v>40251</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31141</v>
+        <v>30085</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51502</v>
+        <v>52058</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3344326373550705</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2587426716403109</v>
+        <v>0.2499656315772601</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4279136233083128</v>
+        <v>0.432538190494328</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>7404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3602</v>
+        <v>3440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14244</v>
+        <v>13567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07155045264549673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03481033535325641</v>
+        <v>0.0332455800638491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1376600012803214</v>
+        <v>0.1311126453291935</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>7404</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3712</v>
+        <v>3532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15083</v>
+        <v>14078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05790871170828719</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02903520153273905</v>
+        <v>0.02762721065041465</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1179727972489625</v>
+        <v>0.1101100443597596</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>26905</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18607</v>
+        <v>19019</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>36727</v>
+        <v>37075</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2600151300799278</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.17981887925168</v>
+        <v>0.1838002814040361</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.354933364561353</v>
+        <v>0.3582990641721862</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4992</v>
+        <v>6075</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04058746461708408</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2047715586331804</v>
+        <v>0.2492315415563319</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>28</v>
@@ -1567,19 +1567,19 @@
         <v>27894</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>19435</v>
+        <v>19699</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>37493</v>
+        <v>38160</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2181792610389345</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1520162139032286</v>
+        <v>0.1540810538496317</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2932582726143208</v>
+        <v>0.2984725735463514</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>51555</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40814</v>
+        <v>41831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61684</v>
+        <v>61342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4982387217885124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3944310309892021</v>
+        <v>0.4042653606342247</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5961253423796748</v>
+        <v>0.5928220638309613</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1617,19 +1617,19 @@
         <v>13409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8312</v>
+        <v>8306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18140</v>
+        <v>17856</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5500823113210139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3409924897244593</v>
+        <v>0.3407513354254213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7441764956650858</v>
+        <v>0.732532739372718</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1638,19 +1638,19 @@
         <v>64964</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52870</v>
+        <v>53110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75005</v>
+        <v>77235</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5081231710338789</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4135253048116186</v>
+        <v>0.4154072565741046</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5866596018778614</v>
+        <v>0.6040981176262603</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>17611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11279</v>
+        <v>10976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26993</v>
+        <v>26798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1701956954860631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1089987057115104</v>
+        <v>0.1060750911991906</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2608615343126353</v>
+        <v>0.2589844527679371</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1688,19 +1688,19 @@
         <v>9978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5725</v>
+        <v>5830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14877</v>
+        <v>14979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4093302240619019</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2348671436987363</v>
+        <v>0.2391793011175815</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6102931797544436</v>
+        <v>0.6144831477888032</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1709,19 +1709,19 @@
         <v>27589</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19260</v>
+        <v>19161</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37989</v>
+        <v>38014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2157888562188994</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1506423341838707</v>
+        <v>0.1498697563912796</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2971357963689921</v>
+        <v>0.2973271146916573</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>24778</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16677</v>
+        <v>17123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35422</v>
+        <v>35352</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09382566755643816</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06314995042331845</v>
+        <v>0.06483765582066886</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1341298756005957</v>
+        <v>0.1338635899362628</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6455</v>
+        <v>7848</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03261626512471958</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1003050970841622</v>
+        <v>0.1219505562611128</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -1855,19 +1855,19 @@
         <v>26877</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18068</v>
+        <v>18761</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38230</v>
+        <v>37949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08183202215847363</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05500981738252942</v>
+        <v>0.05712109476263019</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.116397082798186</v>
+        <v>0.1155418701411036</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>85294</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70451</v>
+        <v>70850</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101106</v>
+        <v>99756</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.322977725460991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2667727561352819</v>
+        <v>0.268282636175515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3828514213994629</v>
+        <v>0.3777391863203674</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1905,19 +1905,19 @@
         <v>7380</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3171</v>
+        <v>3111</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13696</v>
+        <v>13476</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.114667363567427</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04927855675419952</v>
+        <v>0.04834151810860924</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2128107216848107</v>
+        <v>0.2094019208937341</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>94</v>
@@ -1926,19 +1926,19 @@
         <v>92674</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>75954</v>
+        <v>77364</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>109526</v>
+        <v>109010</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2821604569692731</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2312534126370763</v>
+        <v>0.235548292304393</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3334705730176238</v>
+        <v>0.3319005098100514</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>97645</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>83012</v>
+        <v>82263</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>114183</v>
+        <v>112933</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3697453574469909</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3143361601515329</v>
+        <v>0.3115022825424673</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4323697626455221</v>
+        <v>0.427635427261539</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1976,19 +1976,19 @@
         <v>29357</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21654</v>
+        <v>21958</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38547</v>
+        <v>37357</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.456160677350696</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3364606881671049</v>
+        <v>0.3411969389491839</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.598954790404063</v>
+        <v>0.5804652242131761</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>126</v>
@@ -1997,19 +1997,19 @@
         <v>127002</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>110158</v>
+        <v>109912</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>145314</v>
+        <v>145125</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3866779635941084</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.335395486490296</v>
+        <v>0.3346447760393297</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4424322177774414</v>
+        <v>0.4418568984090113</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>56369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44346</v>
+        <v>43687</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69959</v>
+        <v>71959</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2134512495355799</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1679238679719474</v>
+        <v>0.165426451201159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2649088087896589</v>
+        <v>0.2724843993508257</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2047,19 +2047,19 @@
         <v>25521</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18534</v>
+        <v>17352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33782</v>
+        <v>32886</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3965556939571574</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2879837051294224</v>
+        <v>0.2696197532286567</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5249188980052274</v>
+        <v>0.5109912495354013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -2068,19 +2068,19 @@
         <v>81891</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67176</v>
+        <v>66489</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98661</v>
+        <v>98255</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2493295572781449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2045284850179618</v>
+        <v>0.2024372357076648</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.300390209913159</v>
+        <v>0.2991535654969179</v>
       </c>
     </row>
     <row r="23">
@@ -2172,19 +2172,19 @@
         <v>12337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6861</v>
+        <v>6932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19827</v>
+        <v>20254</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1942144868219651</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1080162296524944</v>
+        <v>0.1091233745640719</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3121287651180681</v>
+        <v>0.3188533324869405</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4589</v>
+        <v>4570</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02482212351182252</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1206695245113305</v>
+        <v>0.1201751904010055</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2214,19 +2214,19 @@
         <v>13281</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7464</v>
+        <v>7076</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21168</v>
+        <v>21262</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1307788327716371</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07350508258412687</v>
+        <v>0.06967926601963596</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2084455058289386</v>
+        <v>0.2093724757057058</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>18499</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11503</v>
+        <v>11273</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26198</v>
+        <v>26222</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2912315604592873</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1810849094643828</v>
+        <v>0.1774662929602548</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.412434764629015</v>
+        <v>0.4128039827768648</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2264,19 +2264,19 @@
         <v>5980</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2825</v>
+        <v>2025</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11334</v>
+        <v>11856</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1572514509278282</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0742889338712231</v>
+        <v>0.05324094640808547</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2980317848402342</v>
+        <v>0.3117635861622116</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2285,19 +2285,19 @@
         <v>24479</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17399</v>
+        <v>16835</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34036</v>
+        <v>33896</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2410574220756014</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1713348315166938</v>
+        <v>0.1657784751334147</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3351688262812503</v>
+        <v>0.3337838167912945</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>13488</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7858</v>
+        <v>7674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20504</v>
+        <v>20643</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2123375053686457</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.123701222701384</v>
+        <v>0.120810780498358</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3227975947817462</v>
+        <v>0.3249748164081828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2335,19 +2335,19 @@
         <v>14019</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8065</v>
+        <v>8706</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20337</v>
+        <v>19976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3686357660479482</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.21206285936945</v>
+        <v>0.2289367848807149</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5347546056269332</v>
+        <v>0.5252821995827905</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -2356,19 +2356,19 @@
         <v>27507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19174</v>
+        <v>19301</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37038</v>
+        <v>36440</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2708695560430137</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1888148209864199</v>
+        <v>0.1900665709781639</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3647231608129836</v>
+        <v>0.3588380360811986</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>19197</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12555</v>
+        <v>12410</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27251</v>
+        <v>26860</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.302216447350102</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.197652872495049</v>
+        <v>0.1953708502010669</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4290033389023036</v>
+        <v>0.422848441919304</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>16</v>
@@ -2406,19 +2406,19 @@
         <v>17087</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11341</v>
+        <v>10808</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23539</v>
+        <v>23884</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4492906595124012</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2982049978492486</v>
+        <v>0.2841993234395611</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6189594636805409</v>
+        <v>0.6280401089199344</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>35</v>
@@ -2427,19 +2427,19 @@
         <v>36283</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26738</v>
+        <v>26331</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>46929</v>
+        <v>46432</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3572941891097479</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2632987280874743</v>
+        <v>0.2592946038566768</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.462124740018153</v>
+        <v>0.4572288649295614</v>
       </c>
     </row>
     <row r="28">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6783</v>
+        <v>7277</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04914650470178054</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1570943718511767</v>
+        <v>0.1685387094343788</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6494</v>
+        <v>6567</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04356917140715862</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1333511364761237</v>
+        <v>0.1348475940098897</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>10431</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5463</v>
+        <v>6120</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16623</v>
+        <v>16769</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2415963867400271</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1265331230255</v>
+        <v>0.14175038645333</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3850179488504594</v>
+        <v>0.388404054322137</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -2628,19 +2628,19 @@
         <v>10431</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5227</v>
+        <v>5385</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16607</v>
+        <v>16683</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.214179104884443</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.107333202327896</v>
+        <v>0.1105646126052115</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3409910285175473</v>
+        <v>0.3425565305095555</v>
       </c>
     </row>
     <row r="31">
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3689</v>
+        <v>3957</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1595695671280122</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6674932263296852</v>
+        <v>0.7159686106566753</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2678,19 +2678,19 @@
         <v>16773</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10492</v>
+        <v>10920</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23461</v>
+        <v>23997</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3884921220509781</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.243018262844334</v>
+        <v>0.252918001099487</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.543386140130094</v>
+        <v>0.5558080561785349</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -2699,19 +2699,19 @@
         <v>17655</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11268</v>
+        <v>11437</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24085</v>
+        <v>25353</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3625131150959724</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2313697019648746</v>
+        <v>0.2348322866714473</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.494544008902663</v>
+        <v>0.5205832144802198</v>
       </c>
     </row>
     <row r="32">
@@ -2728,7 +2728,7 @@
         <v>4645</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1838</v>
+        <v>1570</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>5527</v>
@@ -2737,7 +2737,7 @@
         <v>0.8404304328719878</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3325067736703148</v>
+        <v>0.2840313893433167</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2749,19 +2749,19 @@
         <v>13849</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8479</v>
+        <v>7859</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20620</v>
+        <v>20566</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3207649865072142</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.196384717698548</v>
+        <v>0.1820257824216654</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4775806785072856</v>
+        <v>0.4763387790073437</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -2770,19 +2770,19 @@
         <v>18494</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12625</v>
+        <v>12437</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>25563</v>
+        <v>25668</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3797386086124259</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2592367208477437</v>
+        <v>0.2553692993408891</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5248864563311681</v>
+        <v>0.5270452517597098</v>
       </c>
     </row>
     <row r="33">
@@ -2874,19 +2874,19 @@
         <v>66129</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>52907</v>
+        <v>51376</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>83103</v>
+        <v>83922</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1080491879422187</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08644469695571984</v>
+        <v>0.08394342780286733</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1357830148337951</v>
+        <v>0.1371216866869381</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2895,19 +2895,19 @@
         <v>8405</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4034</v>
+        <v>3954</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16489</v>
+        <v>16771</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03382779566640107</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01623674827193102</v>
+        <v>0.01591417573145694</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06636277779096979</v>
+        <v>0.06749672876554436</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>73</v>
@@ -2916,19 +2916,19 @@
         <v>74535</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>60252</v>
+        <v>59860</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>93257</v>
+        <v>92819</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08661736019100101</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07001899145374028</v>
+        <v>0.06956409025848612</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1083745039669862</v>
+        <v>0.1078663501777166</v>
       </c>
     </row>
     <row r="35">
@@ -2945,19 +2945,19 @@
         <v>172005</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>149715</v>
+        <v>149367</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>195270</v>
+        <v>194505</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2810406703023481</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2446205275103525</v>
+        <v>0.2440524677408601</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3190540318365469</v>
+        <v>0.3178031952578939</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>38</v>
@@ -2966,19 +2966,19 @@
         <v>40061</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>28872</v>
+        <v>29276</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>51356</v>
+        <v>51769</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1612256246048615</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1161963496199708</v>
+        <v>0.1178238716805018</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2066847717070669</v>
+        <v>0.2083453993645143</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>209</v>
@@ -2987,19 +2987,19 @@
         <v>212066</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>185481</v>
+        <v>188264</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>234627</v>
+        <v>237472</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2464434289591747</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.215549340317872</v>
+        <v>0.2187830436008714</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2726620403593584</v>
+        <v>0.2759689054283399</v>
       </c>
     </row>
     <row r="36">
@@ -3016,19 +3016,19 @@
         <v>228293</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>206307</v>
+        <v>204146</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>254223</v>
+        <v>253603</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3730103386285673</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3370867972472579</v>
+        <v>0.333556215314801</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4153770310785601</v>
+        <v>0.4143646667247191</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>101</v>
@@ -3037,19 +3037,19 @@
         <v>105918</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>90168</v>
+        <v>90392</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>121768</v>
+        <v>121043</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4262734608144993</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.362886952229825</v>
+        <v>0.3637859037539991</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4900596359361657</v>
+        <v>0.487141880924256</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>333</v>
@@ -3058,19 +3058,19 @@
         <v>334211</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>304963</v>
+        <v>304926</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>364662</v>
+        <v>361139</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3883903527347279</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3543999563318407</v>
+        <v>0.3543568792521111</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4237773317982491</v>
+        <v>0.4196831264482663</v>
       </c>
     </row>
     <row r="37">
@@ -3087,19 +3087,19 @@
         <v>145602</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>124719</v>
+        <v>125035</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>167957</v>
+        <v>166903</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.237899803126866</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2037788640929923</v>
+        <v>0.204295172636502</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2744258194956857</v>
+        <v>0.2727042555086782</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>94</v>
@@ -3108,19 +3108,19 @@
         <v>94091</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3786731189142381</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>235</v>
@@ -3129,19 +3129,19 @@
         <v>239692</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>212970</v>
+        <v>213610</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>265484</v>
+        <v>266265</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2785488581150964</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.247494808502201</v>
+        <v>0.2482380871381854</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3085210126091672</v>
+        <v>0.3094295328715909</v>
       </c>
     </row>
     <row r="38">
@@ -3475,19 +3475,19 @@
         <v>24759</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16240</v>
+        <v>15975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35958</v>
+        <v>34396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2209266561664887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.144906488094819</v>
+        <v>0.1425455886636011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3208472800970874</v>
+        <v>0.3069146370220603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7946</v>
+        <v>8010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04147019960746368</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1494949988765756</v>
+        <v>0.1507012434345155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -3517,19 +3517,19 @@
         <v>26964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17389</v>
+        <v>17614</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39204</v>
+        <v>38224</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1631981913608137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1052492243696898</v>
+        <v>0.1066122850632132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2372829711555098</v>
+        <v>0.2313548312212814</v>
       </c>
     </row>
     <row r="5">
@@ -3546,19 +3546,19 @@
         <v>32562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22688</v>
+        <v>23055</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43655</v>
+        <v>43550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2905522923276998</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2024459497681917</v>
+        <v>0.2057157808342566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3895274674819264</v>
+        <v>0.3885893790816889</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3567,19 +3567,19 @@
         <v>5873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1973</v>
+        <v>1940</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13483</v>
+        <v>12423</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1104944317099878</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03711645288838791</v>
+        <v>0.03650866146966226</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2536910150033801</v>
+        <v>0.2337403043931571</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -3588,19 +3588,19 @@
         <v>38435</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27277</v>
+        <v>27667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51327</v>
+        <v>51652</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2326303648085533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1650948352201813</v>
+        <v>0.1674552763800755</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3106585987188161</v>
+        <v>0.3126259042971615</v>
       </c>
     </row>
     <row r="6">
@@ -3617,19 +3617,19 @@
         <v>30220</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21419</v>
+        <v>20662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39991</v>
+        <v>40651</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2696494100957298</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1911199217154198</v>
+        <v>0.1843648441098461</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3568375842847128</v>
+        <v>0.3627266500424016</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -3638,19 +3638,19 @@
         <v>25064</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17362</v>
+        <v>17372</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33290</v>
+        <v>32894</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4715804947505461</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3266706893883605</v>
+        <v>0.3268593654654075</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6263491312436584</v>
+        <v>0.6189021877611934</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -3659,19 +3659,19 @@
         <v>55284</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43063</v>
+        <v>43290</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67990</v>
+        <v>69480</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3346076274660431</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2606424475187868</v>
+        <v>0.2620159349346384</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.411511709876164</v>
+        <v>0.4205286069704932</v>
       </c>
     </row>
     <row r="7">
@@ -3688,19 +3688,19 @@
         <v>24529</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16602</v>
+        <v>15949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34227</v>
+        <v>35148</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2188716414100817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1481386685827929</v>
+        <v>0.1423134146433328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3054090160678957</v>
+        <v>0.3136261951931865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -3709,19 +3709,19 @@
         <v>20008</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12724</v>
+        <v>12885</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28690</v>
+        <v>27773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3764548739320025</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2394079459770964</v>
+        <v>0.2424250516109304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5397938032865386</v>
+        <v>0.522544036607008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -3730,19 +3730,19 @@
         <v>44537</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34224</v>
+        <v>34090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56766</v>
+        <v>57781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2695638163645899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2071439059981347</v>
+        <v>0.2063286023566435</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.343578962185398</v>
+        <v>0.3497238752536253</v>
       </c>
     </row>
     <row r="8">
@@ -3834,19 +3834,19 @@
         <v>17896</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9739</v>
+        <v>9942</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28009</v>
+        <v>27864</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1923574578068497</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1046874792555196</v>
+        <v>0.1068610497629608</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3010670339243704</v>
+        <v>0.2995019117892485</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -3855,19 +3855,19 @@
         <v>3985</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9526</v>
+        <v>9186</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07505392045778103</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01940950638889012</v>
+        <v>0.01897563731095451</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1794250390603694</v>
+        <v>0.1730312993261025</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -3876,19 +3876,19 @@
         <v>21880</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14096</v>
+        <v>13170</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>34102</v>
+        <v>33839</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1497387037414455</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09646350287015296</v>
+        <v>0.09012874946743031</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2333763750817855</v>
+        <v>0.2315743485702798</v>
       </c>
     </row>
     <row r="10">
@@ -3905,19 +3905,19 @@
         <v>17784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10746</v>
+        <v>10816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27190</v>
+        <v>26457</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1911530427978003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1155057046979294</v>
+        <v>0.1162616365094658</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2922608016573863</v>
+        <v>0.2843842973663108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3926,19 +3926,19 @@
         <v>14494</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8432</v>
+        <v>7864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22712</v>
+        <v>22825</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2730148724916492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1588213442465325</v>
+        <v>0.148134705124032</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4278112570130415</v>
+        <v>0.429921408921936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3947,19 +3947,19 @@
         <v>32278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22799</v>
+        <v>22885</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44554</v>
+        <v>44746</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2208951057049411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1560275659535047</v>
+        <v>0.1566125354311692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3049025742084712</v>
+        <v>0.306221896230762</v>
       </c>
     </row>
     <row r="11">
@@ -3976,19 +3976,19 @@
         <v>32586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23101</v>
+        <v>23339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42504</v>
+        <v>41877</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3502595735643596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.248311699643411</v>
+        <v>0.2508686648181774</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4568691585974741</v>
+        <v>0.4501227724770531</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -3997,19 +3997,19 @@
         <v>15698</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9066</v>
+        <v>9232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22486</v>
+        <v>22611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2956874269267604</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1707714346355259</v>
+        <v>0.1738899194974449</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4235457309314815</v>
+        <v>0.4258979631678158</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -4018,19 +4018,19 @@
         <v>48284</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36188</v>
+        <v>38104</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60466</v>
+        <v>61810</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3304324059534804</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2476502714057836</v>
+        <v>0.2607628763914356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4137978217158683</v>
+        <v>0.4229988847873693</v>
       </c>
     </row>
     <row r="12">
@@ -4047,19 +4047,19 @@
         <v>24768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17041</v>
+        <v>15846</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34339</v>
+        <v>34363</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2662299258309904</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1831643486750144</v>
+        <v>0.1703283976505329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3690986333815308</v>
+        <v>0.3693647466494732</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -4068,19 +4068,19 @@
         <v>18913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12324</v>
+        <v>12602</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26302</v>
+        <v>26547</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3562437801238094</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2321334928153592</v>
+        <v>0.2373650998557991</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.495431720567208</v>
+        <v>0.5000370640787339</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -4089,19 +4089,19 @@
         <v>43681</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32858</v>
+        <v>32864</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56044</v>
+        <v>55603</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2989337846001329</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.224865422543143</v>
+        <v>0.2249036651568274</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3835354936630226</v>
+        <v>0.3805191225515498</v>
       </c>
     </row>
     <row r="13">
@@ -4193,19 +4193,19 @@
         <v>27057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17446</v>
+        <v>17002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39032</v>
+        <v>38083</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1665853030929602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1074130761967041</v>
+        <v>0.1046767480822614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2403108590152601</v>
+        <v>0.2344678639984758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6896</v>
+        <v>6781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06118793013451657</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.196081300645038</v>
+        <v>0.1928023921878079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -4235,19 +4235,19 @@
         <v>29209</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19656</v>
+        <v>19807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40091</v>
+        <v>41874</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1478252834010711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09947855546202061</v>
+        <v>0.1002443006140653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2028998619699298</v>
+        <v>0.2119226000583758</v>
       </c>
     </row>
     <row r="15">
@@ -4264,19 +4264,19 @@
         <v>38989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27529</v>
+        <v>28529</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51010</v>
+        <v>52575</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2400498236881985</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1694928749492831</v>
+        <v>0.1756506348445048</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3140615626134612</v>
+        <v>0.3236958527936885</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -4285,19 +4285,19 @@
         <v>4354</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1000</v>
+        <v>1174</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9700</v>
+        <v>10086</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1238015865852776</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02842432943961222</v>
+        <v>0.03338080570724396</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2757911868237193</v>
+        <v>0.2867795383550297</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>37</v>
@@ -4306,19 +4306,19 @@
         <v>43343</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31683</v>
+        <v>31735</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>57562</v>
+        <v>56858</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2193584235518967</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1603485539996156</v>
+        <v>0.1606118789911067</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2913184597564664</v>
+        <v>0.2877554373461452</v>
       </c>
     </row>
     <row r="16">
@@ -4335,19 +4335,19 @@
         <v>54246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42674</v>
+        <v>43527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67731</v>
+        <v>67134</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3339835194166201</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2627372136400278</v>
+        <v>0.2679872884926486</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4170088622008971</v>
+        <v>0.4133303500310216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4356,19 +4356,19 @@
         <v>18224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12024</v>
+        <v>11333</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24066</v>
+        <v>24051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5181825617231355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3418956658024701</v>
+        <v>0.3222436118079714</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6842729773023911</v>
+        <v>0.6838479107342142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -4377,19 +4377,19 @@
         <v>72470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59931</v>
+        <v>58448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88593</v>
+        <v>86830</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3667697033973139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3033069198134976</v>
+        <v>0.2958019108681197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4483656451409625</v>
+        <v>0.4394433480432524</v>
       </c>
     </row>
     <row r="17">
@@ -4406,19 +4406,19 @@
         <v>42129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31682</v>
+        <v>30822</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53783</v>
+        <v>53376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2593813538022212</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1950640306153268</v>
+        <v>0.1897655342306281</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3311348831358926</v>
+        <v>0.3286245735406338</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -4427,19 +4427,19 @@
         <v>10439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5546</v>
+        <v>5581</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16844</v>
+        <v>16444</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2968279215570704</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1576869787988862</v>
+        <v>0.1586876336228364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4789366826464148</v>
+        <v>0.467552818079101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -4448,19 +4448,19 @@
         <v>52568</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39496</v>
+        <v>39717</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66024</v>
+        <v>65717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2660465896497182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1998882178071984</v>
+        <v>0.2010055364034294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3341430665173108</v>
+        <v>0.3325907367277016</v>
       </c>
     </row>
     <row r="18">
@@ -4552,19 +4552,19 @@
         <v>48901</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36880</v>
+        <v>36254</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64025</v>
+        <v>64725</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1499769385785708</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.113108020899231</v>
+        <v>0.1111898612657455</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1963604844901287</v>
+        <v>0.1985073879352062</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4573,19 +4573,19 @@
         <v>4031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9345</v>
+        <v>10201</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03531686469918439</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009189350893303591</v>
+        <v>0.00910748355961547</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08186731648013403</v>
+        <v>0.0893641240979285</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -4594,19 +4594,19 @@
         <v>52932</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38197</v>
+        <v>39456</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67441</v>
+        <v>68049</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1202452125657726</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08677011207574309</v>
+        <v>0.08963035911856232</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1532029992876497</v>
+        <v>0.1545856003021025</v>
       </c>
     </row>
     <row r="20">
@@ -4623,19 +4623,19 @@
         <v>79705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64271</v>
+        <v>64013</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96679</v>
+        <v>96289</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2444504421185368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1971156983260416</v>
+        <v>0.1963244534514996</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.29650877094703</v>
+        <v>0.2953116105359089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -4644,19 +4644,19 @@
         <v>21439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13928</v>
+        <v>13650</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31227</v>
+        <v>31568</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1878244618417887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1220200909254032</v>
+        <v>0.1195809099362583</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2735664650722804</v>
+        <v>0.2765616641909911</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -4665,19 +4665,19 @@
         <v>101144</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84603</v>
+        <v>82612</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121181</v>
+        <v>120233</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2297671432697553</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1921913942245129</v>
+        <v>0.1876668655699472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2752836928730058</v>
+        <v>0.2731301893698535</v>
       </c>
     </row>
     <row r="21">
@@ -4694,19 +4694,19 @@
         <v>97955</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82020</v>
+        <v>81993</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>116887</v>
+        <v>115598</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3004211340756358</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.251549965249608</v>
+        <v>0.251466192634221</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3584849312177452</v>
+        <v>0.3545321168191509</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -4715,19 +4715,19 @@
         <v>44279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33604</v>
+        <v>34226</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55645</v>
+        <v>55845</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3879147869792277</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2943910024300991</v>
+        <v>0.2998415717237568</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4874927921342692</v>
+        <v>0.4892440064438262</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>134</v>
@@ -4736,19 +4736,19 @@
         <v>142234</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>123352</v>
+        <v>121823</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>163749</v>
+        <v>163221</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3231085197363572</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2802161014411485</v>
+        <v>0.2767424299334751</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3719842475024364</v>
+        <v>0.3707846871115295</v>
       </c>
     </row>
     <row r="22">
@@ -4765,19 +4765,19 @@
         <v>99497</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82516</v>
+        <v>83636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>117496</v>
+        <v>118122</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3051514852272567</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2530715112120091</v>
+        <v>0.2565058167357512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3603532295917337</v>
+        <v>0.3622735101951601</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -4786,19 +4786,19 @@
         <v>44396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33318</v>
+        <v>34024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55184</v>
+        <v>56724</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3889438864797992</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2918898115664227</v>
+        <v>0.2980705085020496</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4834485427990508</v>
+        <v>0.496946195817893</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -4807,19 +4807,19 @@
         <v>143893</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123715</v>
+        <v>124825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162828</v>
+        <v>165426</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3268791244281148</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2810405242611747</v>
+        <v>0.2835624908328792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.369892876358183</v>
+        <v>0.3757939577555058</v>
       </c>
     </row>
     <row r="23">
@@ -4911,19 +4911,19 @@
         <v>24824</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15390</v>
+        <v>16772</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35188</v>
+        <v>36469</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1935721826774731</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1200025548499581</v>
+        <v>0.1307837905739429</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2743837623139272</v>
+        <v>0.2843723127656125</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4932,19 +4932,19 @@
         <v>3074</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8305</v>
+        <v>8302</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04363571690453506</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0141572355582057</v>
+        <v>0.01408622549922634</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1178874922786052</v>
+        <v>0.1178481295052912</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -4953,19 +4953,19 @@
         <v>27898</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18748</v>
+        <v>18765</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>39089</v>
+        <v>39128</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1404119613677504</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09435718748368058</v>
+        <v>0.09444246021008307</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1967351642293457</v>
+        <v>0.1969294830530952</v>
       </c>
     </row>
     <row r="25">
@@ -4982,19 +4982,19 @@
         <v>34246</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23991</v>
+        <v>25248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45181</v>
+        <v>45010</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.267033993752652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1870717141428536</v>
+        <v>0.1968779576843791</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3523066154571582</v>
+        <v>0.3509691425955577</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -5003,19 +5003,19 @@
         <v>18490</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11430</v>
+        <v>11224</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26629</v>
+        <v>26737</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2624772219515952</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1622549314895563</v>
+        <v>0.1593270107865488</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3780121089790756</v>
+        <v>0.379539581102049</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -5024,19 +5024,19 @@
         <v>52736</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41156</v>
+        <v>40445</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65934</v>
+        <v>66173</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2654183827926809</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2071361085143184</v>
+        <v>0.2035591636277305</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.331842683331009</v>
+        <v>0.3330465103360803</v>
       </c>
     </row>
     <row r="26">
@@ -5053,19 +5053,19 @@
         <v>41922</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31335</v>
+        <v>32214</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53784</v>
+        <v>53674</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3268954301014607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2443378525947928</v>
+        <v>0.2511910403493054</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.419387349772037</v>
+        <v>0.4185296676732962</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -5074,19 +5074,19 @@
         <v>25858</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17760</v>
+        <v>18466</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33345</v>
+        <v>35256</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3670623387230165</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2521093093299365</v>
+        <v>0.2621271314734923</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.473339154864735</v>
+        <v>0.5004712101231763</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>63</v>
@@ -5095,19 +5095,19 @@
         <v>67780</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>54832</v>
+        <v>55330</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>82713</v>
+        <v>82255</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3411366738218706</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2759662213969609</v>
+        <v>0.2784723414509165</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4162927326280886</v>
+        <v>0.4139845915888742</v>
       </c>
     </row>
     <row r="27">
@@ -5124,19 +5124,19 @@
         <v>27252</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18523</v>
+        <v>18693</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>37279</v>
+        <v>37087</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2124983934684142</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1444356483054492</v>
+        <v>0.1457617604961725</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.290691283759309</v>
+        <v>0.2891879869995311</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>22</v>
@@ -5145,19 +5145,19 @@
         <v>23023</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15146</v>
+        <v>15083</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31758</v>
+        <v>31814</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3268247224208533</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2149975014057296</v>
+        <v>0.2141102422663096</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.450810482183401</v>
+        <v>0.4516043720792665</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>48</v>
@@ -5166,19 +5166,19 @@
         <v>50275</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>38282</v>
+        <v>39618</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>64903</v>
+        <v>63422</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.253032982017698</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1926712889122155</v>
+        <v>0.1993956564984561</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3266521813263717</v>
+        <v>0.3192003539664239</v>
       </c>
     </row>
     <row r="28">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4187</v>
+        <v>3264</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.167945961875561</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6959098537297392</v>
+        <v>0.5426273123605864</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -5291,19 +5291,19 @@
         <v>7179</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3085</v>
+        <v>3074</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14602</v>
+        <v>14286</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1139261564177383</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04895641133496103</v>
+        <v>0.04878729560213173</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2317237417712991</v>
+        <v>0.2267076129448278</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -5312,19 +5312,19 @@
         <v>8189</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3428</v>
+        <v>3992</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15679</v>
+        <v>16339</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1186336678872272</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04965396875772819</v>
+        <v>0.05782758421640635</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.227126759716009</v>
+        <v>0.2366935560855041</v>
       </c>
     </row>
     <row r="30">
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4045</v>
+        <v>4104</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1624858783201643</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6723222940372414</v>
+        <v>0.6822193722542491</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -5362,19 +5362,19 @@
         <v>8185</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3357</v>
+        <v>3230</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15293</v>
+        <v>15861</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1298884444243132</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05327177550835659</v>
+        <v>0.05126046810337781</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2426881433937702</v>
+        <v>0.2517138360961658</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -5383,19 +5383,19 @@
         <v>9162</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4261</v>
+        <v>4162</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16593</v>
+        <v>16300</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1327291209621144</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06172871429057403</v>
+        <v>0.06029668464039126</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2403706267652953</v>
+        <v>0.2361349830025816</v>
       </c>
     </row>
     <row r="31">
@@ -5425,19 +5425,19 @@
         <v>23052</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15576</v>
+        <v>15165</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31075</v>
+        <v>31555</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3658170961418616</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2471846785504706</v>
+        <v>0.2406539825343951</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4931386433493923</v>
+        <v>0.5007648739525111</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -5446,19 +5446,19 @@
         <v>23052</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15527</v>
+        <v>15567</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31853</v>
+        <v>32122</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3339382664935857</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2249360135564053</v>
+        <v>0.2255145666502817</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4614394000026468</v>
+        <v>0.4653292445414307</v>
       </c>
     </row>
     <row r="32">
@@ -5475,7 +5475,7 @@
         <v>4028</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>965</v>
+        <v>1267</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>6016</v>
@@ -5484,7 +5484,7 @@
         <v>0.6695681598042748</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1603712108700077</v>
+        <v>0.2105520794531409</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5496,19 +5496,19 @@
         <v>24599</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16978</v>
+        <v>16725</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32464</v>
+        <v>33037</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3903683030160869</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2694327228823487</v>
+        <v>0.2654187174650044</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5151914003289145</v>
+        <v>0.5242776926750182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>27</v>
@@ -5517,19 +5517,19 @@
         <v>28627</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20909</v>
+        <v>20579</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>37918</v>
+        <v>36862</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4146989446570726</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3028967552212078</v>
+        <v>0.2981110867407874</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5493029029373789</v>
+        <v>0.533994041345206</v>
       </c>
     </row>
     <row r="33">
@@ -5621,19 +5621,19 @@
         <v>144448</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>122444</v>
+        <v>123437</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>169702</v>
+        <v>169890</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1744872810217812</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1479071091804561</v>
+        <v>0.1491062284475008</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2049932602762478</v>
+        <v>0.205220052004365</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>21</v>
@@ -5642,19 +5642,19 @@
         <v>22625</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14556</v>
+        <v>14447</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33331</v>
+        <v>33554</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05815939201218447</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0374163585538547</v>
+        <v>0.03713764042774046</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08568125744175956</v>
+        <v>0.08625388865554318</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>146</v>
@@ -5663,19 +5663,19 @@
         <v>167073</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>142217</v>
+        <v>143333</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>196180</v>
+        <v>193745</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1372986805221128</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1168724239402868</v>
+        <v>0.1177894428008553</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1612181155593024</v>
+        <v>0.1592174031538461</v>
       </c>
     </row>
     <row r="35">
@@ -5692,19 +5692,19 @@
         <v>204263</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>181214</v>
+        <v>181004</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>230114</v>
+        <v>234646</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2467414684490753</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2188987042940514</v>
+        <v>0.2186454014803156</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2779676042342413</v>
+        <v>0.283442814931583</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>63</v>
@@ -5713,19 +5713,19 @@
         <v>72836</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>56693</v>
+        <v>55639</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>90041</v>
+        <v>88645</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1872312700920418</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1457357515618601</v>
+        <v>0.1430257166064951</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2314583687694673</v>
+        <v>0.2278695518546855</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>249</v>
@@ -5734,19 +5734,19 @@
         <v>277099</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>248062</v>
+        <v>248830</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>311530</v>
+        <v>313142</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2277167873412357</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2038542003715602</v>
+        <v>0.2044855997221509</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.256011812820157</v>
+        <v>0.2573366579662756</v>
       </c>
     </row>
     <row r="36">
@@ -5763,19 +5763,19 @@
         <v>256929</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>230942</v>
+        <v>229543</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>283604</v>
+        <v>283157</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3103593066666653</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2789680995639077</v>
+        <v>0.2772784449067887</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3425811737688066</v>
+        <v>0.3420409163967627</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>141</v>
@@ -5784,19 +5784,19 @@
         <v>152175</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>133308</v>
+        <v>132894</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>173086</v>
+        <v>173304</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3911806626598758</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3426817775171693</v>
+        <v>0.3416168406974335</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4449340200032745</v>
+        <v>0.4454946477061557</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>385</v>
@@ -5805,19 +5805,19 @@
         <v>409104</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>376237</v>
+        <v>377875</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>439327</v>
+        <v>442640</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3361969036991794</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3091871125994982</v>
+        <v>0.3105329342817968</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3610339522892036</v>
+        <v>0.3637561430041625</v>
       </c>
     </row>
     <row r="37">
@@ -5834,19 +5834,19 @@
         <v>222203</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2684119438624782</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>131</v>
@@ -5855,19 +5855,19 @@
         <v>141379</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>122101</v>
+        <v>123468</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>160560</v>
+        <v>162106</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3634286752358979</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3138711498955573</v>
+        <v>0.3173871259490691</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4127338416429317</v>
+        <v>0.4167088502634277</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>342</v>
@@ -5876,19 +5876,19 @@
         <v>363582</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>331290</v>
+        <v>330324</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>398951</v>
+        <v>394870</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2987876284374721</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2722498453019762</v>
+        <v>0.271455949351269</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3278529943382194</v>
+        <v>0.3244990420285405</v>
       </c>
     </row>
     <row r="38">
@@ -6222,19 +6222,19 @@
         <v>25710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16640</v>
+        <v>17154</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35815</v>
+        <v>35757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2537009487640827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1642000454150131</v>
+        <v>0.1692794431088123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3534255840972026</v>
+        <v>0.3528524767965412</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6243,19 +6243,19 @@
         <v>4269</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1074</v>
+        <v>1087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9792</v>
+        <v>9700</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06211471790063326</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01562211236561283</v>
+        <v>0.0158160846291251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1424767972051319</v>
+        <v>0.1411508970350466</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -6264,19 +6264,19 @@
         <v>29978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20736</v>
+        <v>20811</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40557</v>
+        <v>41291</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1762788735802804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1219342295275869</v>
+        <v>0.1223734598726475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2384839085331284</v>
+        <v>0.2428040184935888</v>
       </c>
     </row>
     <row r="5">
@@ -6293,19 +6293,19 @@
         <v>24572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16616</v>
+        <v>16399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34829</v>
+        <v>34308</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2424719189632535</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1639612089973357</v>
+        <v>0.1618263785243078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3436927123255684</v>
+        <v>0.3385548448385874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -6314,19 +6314,19 @@
         <v>23569</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15941</v>
+        <v>16119</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32179</v>
+        <v>32057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.342958247159468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2319514558336307</v>
+        <v>0.2345398872669047</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.468233637177292</v>
+        <v>0.4664614105761075</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -6335,19 +6335,19 @@
         <v>48141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36648</v>
+        <v>36503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61483</v>
+        <v>60574</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2830795347688828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2154996915305557</v>
+        <v>0.214647699940842</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3615369969821888</v>
+        <v>0.3561913483949567</v>
       </c>
     </row>
     <row r="6">
@@ -6364,19 +6364,19 @@
         <v>28554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19759</v>
+        <v>19911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38947</v>
+        <v>38458</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2817697083297541</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1949776472117081</v>
+        <v>0.1964823605427261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3843284650999763</v>
+        <v>0.3794998989261099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -6385,19 +6385,19 @@
         <v>22452</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15879</v>
+        <v>14996</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30736</v>
+        <v>30560</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3266997783137308</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.231060300449294</v>
+        <v>0.2182123333031974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4472338593543178</v>
+        <v>0.4446712173027032</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -6406,19 +6406,19 @@
         <v>51006</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39187</v>
+        <v>38258</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64606</v>
+        <v>63132</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2999264372378574</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2304307755973732</v>
+        <v>0.2249651218513289</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3799010160798268</v>
+        <v>0.3712315344426735</v>
       </c>
     </row>
     <row r="7">
@@ -6435,19 +6435,19 @@
         <v>22503</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14924</v>
+        <v>14408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32850</v>
+        <v>33056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2220574239429097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1472742033696746</v>
+        <v>0.1421747927760189</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3241653424654948</v>
+        <v>0.3261917031647573</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -6456,19 +6456,19 @@
         <v>18434</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12489</v>
+        <v>11523</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26266</v>
+        <v>26427</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.268227256626168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1817209089150269</v>
+        <v>0.1676709826490874</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.382188176693143</v>
+        <v>0.3845425213420488</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -6477,19 +6477,19 @@
         <v>40936</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30165</v>
+        <v>30764</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52438</v>
+        <v>53011</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2407151544129794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1773767536119636</v>
+        <v>0.1809013958492528</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3083461025650195</v>
+        <v>0.3117146423102131</v>
       </c>
     </row>
     <row r="8">
@@ -6581,19 +6581,19 @@
         <v>15246</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8756</v>
+        <v>9354</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22501</v>
+        <v>22679</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.180076039880437</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1034167620947722</v>
+        <v>0.1104867128270396</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2657653143745211</v>
+        <v>0.2678680997888365</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -6602,19 +6602,19 @@
         <v>4409</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1114</v>
+        <v>1150</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9981</v>
+        <v>9969</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06304117453022078</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01593082207569218</v>
+        <v>0.01644148805180167</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1427084516624677</v>
+        <v>0.1425251748476804</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -6623,19 +6623,19 @@
         <v>19656</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11969</v>
+        <v>12783</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28790</v>
+        <v>29794</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1271311266411289</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07741334869071068</v>
+        <v>0.08267781604074981</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1862084619299293</v>
+        <v>0.192706457270164</v>
       </c>
     </row>
     <row r="10">
@@ -6652,19 +6652,19 @@
         <v>20860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13741</v>
+        <v>13511</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30256</v>
+        <v>29279</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2463796747361593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1622950838664573</v>
+        <v>0.1595826869170563</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3573559100710769</v>
+        <v>0.3458158620599599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6673,19 +6673,19 @@
         <v>9766</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4441</v>
+        <v>4363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17044</v>
+        <v>16605</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1396278970272078</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06349951013670616</v>
+        <v>0.06238580405578444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2436814304292347</v>
+        <v>0.2374098131081252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -6694,19 +6694,19 @@
         <v>30626</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21642</v>
+        <v>20473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41287</v>
+        <v>40634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1980866845060313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1399751441691166</v>
+        <v>0.1324175761717315</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2670374541519105</v>
+        <v>0.2628131838768158</v>
       </c>
     </row>
     <row r="11">
@@ -6723,19 +6723,19 @@
         <v>28859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20061</v>
+        <v>20759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37527</v>
+        <v>37966</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3408527908734946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2369417032243726</v>
+        <v>0.245185666984765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4432368535161618</v>
+        <v>0.4484217251291361</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -6744,19 +6744,19 @@
         <v>36393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28627</v>
+        <v>27814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44476</v>
+        <v>45396</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5203213783653752</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4092924785842539</v>
+        <v>0.3976671764660938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6358890114229119</v>
+        <v>0.6490481327929344</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -6765,19 +6765,19 @@
         <v>65252</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53485</v>
+        <v>53770</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78541</v>
+        <v>78072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4220418345444132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3459320542140499</v>
+        <v>0.3477759096736603</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5079924009296591</v>
+        <v>0.5049581771438389</v>
       </c>
     </row>
     <row r="12">
@@ -6794,19 +6794,19 @@
         <v>19701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12909</v>
+        <v>12366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28464</v>
+        <v>28657</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2326914945099092</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1524647406563589</v>
+        <v>0.1460614817689238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3361967883440146</v>
+        <v>0.3384676798606681</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -6815,19 +6815,19 @@
         <v>19375</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12716</v>
+        <v>12089</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27535</v>
+        <v>27871</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2770095500771963</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1818055742986117</v>
+        <v>0.1728477929674788</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3936770277837522</v>
+        <v>0.3984874087095461</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>39</v>
@@ -6836,19 +6836,19 @@
         <v>39076</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29639</v>
+        <v>28629</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51479</v>
+        <v>50106</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2527403543084266</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.19169905425416</v>
+        <v>0.1851670868691901</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3329577408674407</v>
+        <v>0.3240781532353073</v>
       </c>
     </row>
     <row r="13">
@@ -6940,19 +6940,19 @@
         <v>23736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16742</v>
+        <v>16426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34033</v>
+        <v>33000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2062556968883407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.145484959815276</v>
+        <v>0.1427390307736402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2957312953199641</v>
+        <v>0.2867549463324407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5061</v>
+        <v>4178</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05977328278549606</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3093285044138239</v>
+        <v>0.2553765447238134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -6982,19 +6982,19 @@
         <v>24714</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17461</v>
+        <v>16635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34369</v>
+        <v>33567</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1880226686022164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1328447666185661</v>
+        <v>0.1265600025535796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.26147835809092</v>
+        <v>0.2553775040385321</v>
       </c>
     </row>
     <row r="15">
@@ -7011,19 +7011,19 @@
         <v>37397</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27869</v>
+        <v>27561</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>47030</v>
+        <v>47679</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3249676588523543</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2421728619972886</v>
+        <v>0.2394914102188146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4086760960426442</v>
+        <v>0.4143105078027454</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -7032,19 +7032,19 @@
         <v>3880</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8776</v>
+        <v>9090</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2371262942469426</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06975328860346192</v>
+        <v>0.069694612810974</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5363912631916602</v>
+        <v>0.5555873601894916</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>41</v>
@@ -7053,19 +7053,19 @@
         <v>41277</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31408</v>
+        <v>30459</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>52361</v>
+        <v>52171</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3140338269971683</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2389491347602252</v>
+        <v>0.2317319966611407</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3983629765600279</v>
+        <v>0.3969135009675366</v>
       </c>
     </row>
     <row r="16">
@@ -7082,19 +7082,19 @@
         <v>26079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17895</v>
+        <v>17955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35798</v>
+        <v>35965</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2266174526930017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1555026844499593</v>
+        <v>0.156022323880025</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3110716576710169</v>
+        <v>0.312524750254048</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -7103,19 +7103,19 @@
         <v>6003</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2206</v>
+        <v>2848</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10444</v>
+        <v>10272</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3668989328754674</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1348284520903583</v>
+        <v>0.1740727022435787</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6383369418095596</v>
+        <v>0.627813870966095</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -7124,19 +7124,19 @@
         <v>32082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22576</v>
+        <v>23527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41776</v>
+        <v>43048</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2440786354011901</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1717543308084318</v>
+        <v>0.1789891482924676</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3178339376782684</v>
+        <v>0.3275114280666563</v>
       </c>
     </row>
     <row r="17">
@@ -7153,19 +7153,19 @@
         <v>27868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19795</v>
+        <v>19538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37406</v>
+        <v>36937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2421591915663033</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1720125329404411</v>
+        <v>0.1697796540866225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3250418668707687</v>
+        <v>0.3209678741109733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -7174,19 +7174,19 @@
         <v>5501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1789</v>
+        <v>1808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9075</v>
+        <v>9630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3362014900920939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1093415582132038</v>
+        <v>0.1105357696793527</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5546565996144729</v>
+        <v>0.5885833715917134</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -7195,19 +7195,19 @@
         <v>33368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24289</v>
+        <v>24745</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43672</v>
+        <v>43296</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2538648689994252</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1847900348261335</v>
+        <v>0.1882562181915538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3322522520773786</v>
+        <v>0.3293967865974492</v>
       </c>
     </row>
     <row r="18">
@@ -7299,19 +7299,19 @@
         <v>35226</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25252</v>
+        <v>25477</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46573</v>
+        <v>46311</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1340861348327314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09611884484955746</v>
+        <v>0.09697584999942717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1772763110780101</v>
+        <v>0.1762786619677378</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -7320,19 +7320,19 @@
         <v>4568</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11201</v>
+        <v>11054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04527272456671829</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01011238984644942</v>
+        <v>0.01005528300970748</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1110146053393156</v>
+        <v>0.1095535768952561</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -7341,19 +7341,19 @@
         <v>39794</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28664</v>
+        <v>27954</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51375</v>
+        <v>52207</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1094416561010875</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07883278382683501</v>
+        <v>0.07687988200944627</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1412926221589934</v>
+        <v>0.1435787482419089</v>
       </c>
     </row>
     <row r="20">
@@ -7370,19 +7370,19 @@
         <v>69396</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55146</v>
+        <v>55294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83757</v>
+        <v>83765</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2641532094099846</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2099100512615273</v>
+        <v>0.2104739269385256</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3188147292464005</v>
+        <v>0.3188469831252045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -7391,19 +7391,19 @@
         <v>24213</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15963</v>
+        <v>15915</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33356</v>
+        <v>34804</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2399802785651821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1582089718841526</v>
+        <v>0.1577339881659046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.330590840538538</v>
+        <v>0.344949685846729</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>92</v>
@@ -7412,19 +7412,19 @@
         <v>93610</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77031</v>
+        <v>77877</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>110874</v>
+        <v>111825</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2574455593118529</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2118523862675709</v>
+        <v>0.2141787140549475</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3049275729795953</v>
+        <v>0.3075409977440667</v>
       </c>
     </row>
     <row r="21">
@@ -7441,19 +7441,19 @@
         <v>90007</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74658</v>
+        <v>75188</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105573</v>
+        <v>107530</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3426062921150894</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.284180968121392</v>
+        <v>0.286196844345147</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4018576495983432</v>
+        <v>0.4093074537918447</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -7462,19 +7462,19 @@
         <v>38942</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29807</v>
+        <v>28663</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49529</v>
+        <v>49497</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3859591172910644</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2954164540606862</v>
+        <v>0.28408361515098</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4908844159232706</v>
+        <v>0.4905693286776684</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>121</v>
@@ -7483,19 +7483,19 @@
         <v>128949</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>111003</v>
+        <v>112862</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>148144</v>
+        <v>148697</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3546360945380108</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3052815156156315</v>
+        <v>0.3103932295090825</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4074258854818899</v>
+        <v>0.4089485880861612</v>
       </c>
     </row>
     <row r="22">
@@ -7512,19 +7512,19 @@
         <v>68083</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54532</v>
+        <v>53797</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82900</v>
+        <v>81564</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2591543636421946</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2075741715420791</v>
+        <v>0.2047760405934644</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3155542284875683</v>
+        <v>0.3104682954776709</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -7533,19 +7533,19 @@
         <v>33174</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23937</v>
+        <v>24345</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42825</v>
+        <v>43406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3287878795770351</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2372381169026083</v>
+        <v>0.2412815945237422</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4244461893929172</v>
+        <v>0.4301975819002486</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -7554,19 +7554,19 @@
         <v>101257</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84735</v>
+        <v>84133</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119268</v>
+        <v>118791</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2784766900490488</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2330381519689596</v>
+        <v>0.2313822936595163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3280111127807849</v>
+        <v>0.3266986248728161</v>
       </c>
     </row>
     <row r="23">
@@ -7658,19 +7658,19 @@
         <v>28643</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20760</v>
+        <v>20728</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38138</v>
+        <v>39754</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2269325580749687</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1644762205046094</v>
+        <v>0.1642230724519819</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3021540490546389</v>
+        <v>0.314962713958143</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7679,19 +7679,19 @@
         <v>5740</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1625</v>
+        <v>1876</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13424</v>
+        <v>12774</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07158188111348281</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02027090275133835</v>
+        <v>0.02339480592963308</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1674163478841358</v>
+        <v>0.1593123664961001</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -7700,19 +7700,19 @@
         <v>34383</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24589</v>
+        <v>24664</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46243</v>
+        <v>44459</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1665827969287017</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.119130838954035</v>
+        <v>0.1194971703152706</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2240474968675822</v>
+        <v>0.2154043622566954</v>
       </c>
     </row>
     <row r="25">
@@ -7729,19 +7729,19 @@
         <v>33951</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24563</v>
+        <v>25920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44941</v>
+        <v>44687</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2689867041233125</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1946062470887593</v>
+        <v>0.2053552922107116</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.356056771322625</v>
+        <v>0.3540458356077035</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -7750,19 +7750,19 @@
         <v>21361</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13649</v>
+        <v>13562</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29979</v>
+        <v>30230</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2664110177582314</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1702293551623004</v>
+        <v>0.1691402179496088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3738937002092649</v>
+        <v>0.3770182437327746</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -7771,19 +7771,19 @@
         <v>55312</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43102</v>
+        <v>42883</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69018</v>
+        <v>68789</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2679861159059925</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.208827459687674</v>
+        <v>0.2077683149082978</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3343887501693438</v>
+        <v>0.3332801812285446</v>
       </c>
     </row>
     <row r="26">
@@ -7800,19 +7800,19 @@
         <v>42155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31478</v>
+        <v>31710</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52858</v>
+        <v>54067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3339844366300834</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2493907281262165</v>
+        <v>0.2512284185142269</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4187818882901861</v>
+        <v>0.4283549906274102</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -7821,19 +7821,19 @@
         <v>28011</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19746</v>
+        <v>19465</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37285</v>
+        <v>37466</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3493475170334927</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2462675990142502</v>
+        <v>0.242766916922335</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.465008399643268</v>
+        <v>0.4672712332924918</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>68</v>
@@ -7842,19 +7842,19 @@
         <v>70166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>57098</v>
+        <v>55641</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85199</v>
+        <v>84469</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3399526000842182</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2766361261106712</v>
+        <v>0.2695765563119152</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4127876132095296</v>
+        <v>0.4092493267655208</v>
       </c>
     </row>
     <row r="27">
@@ -7871,19 +7871,19 @@
         <v>21469</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13968</v>
+        <v>13683</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31525</v>
+        <v>30879</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1700963011716354</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.110667089285074</v>
+        <v>0.1084055585641189</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2497653182467021</v>
+        <v>0.2446474438156754</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -7892,19 +7892,19 @@
         <v>25069</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16827</v>
+        <v>17142</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34077</v>
+        <v>34556</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3126595840947931</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2098608758135324</v>
+        <v>0.2137853423514452</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.424999854870353</v>
+        <v>0.4309752793235507</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>43</v>
@@ -7913,19 +7913,19 @@
         <v>46539</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>35076</v>
+        <v>35090</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>60967</v>
+        <v>59774</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2254784870810875</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1699421517132144</v>
+        <v>0.1700081334631431</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2953835762805475</v>
+        <v>0.2896013714176626</v>
       </c>
     </row>
     <row r="28">
@@ -8030,19 +8030,19 @@
         <v>3201</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8799</v>
+        <v>8166</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07077062371232118</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02276862416949068</v>
+        <v>0.0224391305424614</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1945297483565034</v>
+        <v>0.1805346313835206</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -8051,19 +8051,19 @@
         <v>3201</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8430</v>
+        <v>7912</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0630109429160451</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02019497145007045</v>
+        <v>0.01980631275146809</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1659249223748269</v>
+        <v>0.1557397085704363</v>
       </c>
     </row>
     <row r="30">
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4343</v>
+        <v>4518</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2037061946143998</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7796465272050606</v>
+        <v>0.8111822778695094</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -8101,19 +8101,19 @@
         <v>7269</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2930</v>
+        <v>3124</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12572</v>
+        <v>13048</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1606989914942207</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06478380989642907</v>
+        <v>0.06905440471817462</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2779457114790604</v>
+        <v>0.2884547663881095</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -8122,19 +8122,19 @@
         <v>8404</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4199</v>
+        <v>3993</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15419</v>
+        <v>14771</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1654145380112298</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08265631813504871</v>
+        <v>0.07860346277757888</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3035030917662929</v>
+        <v>0.2907526717331383</v>
       </c>
     </row>
     <row r="31">
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4607</v>
+        <v>4609</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.227501104802898</v>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.827095599054511</v>
+        <v>0.8275560803511463</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -8172,19 +8172,19 @@
         <v>15727</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9238</v>
+        <v>10189</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22431</v>
+        <v>22883</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.347679863748783</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2042203890298827</v>
+        <v>0.2252564518471891</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.495896094482475</v>
+        <v>0.5058821863078493</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>16</v>
@@ -8193,19 +8193,19 @@
         <v>16994</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10865</v>
+        <v>10729</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24329</v>
+        <v>25912</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3345028029996304</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2138599796232109</v>
+        <v>0.211187039486571</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4788740270028982</v>
+        <v>0.510033369694179</v>
       </c>
     </row>
     <row r="32">
@@ -8222,7 +8222,7 @@
         <v>3168</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>5570</v>
@@ -8231,7 +8231,7 @@
         <v>0.5687927005827021</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1759928242134424</v>
+        <v>0.172904400945489</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -8243,19 +8243,19 @@
         <v>19036</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12620</v>
+        <v>12233</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>26010</v>
+        <v>25590</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4208505210446751</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2789900358745582</v>
+        <v>0.2704542184402587</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5750262089302112</v>
+        <v>0.5657404777571096</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -8264,19 +8264,19 @@
         <v>22205</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14991</v>
+        <v>14119</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>29196</v>
+        <v>28884</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4370717160730947</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2950776915275289</v>
+        <v>0.277911646656766</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5746811779406713</v>
+        <v>0.5685445122925494</v>
       </c>
     </row>
     <row r="33">
@@ -8368,19 +8368,19 @@
         <v>128561</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>109375</v>
+        <v>108114</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>148364</v>
+        <v>149710</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1848241017403446</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1572418911535914</v>
+        <v>0.1554290715409765</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2132933888223362</v>
+        <v>0.215228551685032</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>20</v>
@@ -8389,19 +8389,19 @@
         <v>23165</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14526</v>
+        <v>14286</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>35568</v>
+        <v>35058</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06074537065288902</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0380933765731811</v>
+        <v>0.03746258569882735</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09327084905617131</v>
+        <v>0.09193278236135285</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>149</v>
@@ -8410,19 +8410,19 @@
         <v>151726</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>131131</v>
+        <v>130720</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>176623</v>
+        <v>176635</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1408879085767289</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1217639807195653</v>
+        <v>0.1213828114064705</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1640065543646007</v>
+        <v>0.164018046412959</v>
       </c>
     </row>
     <row r="35">
@@ -8439,19 +8439,19 @@
         <v>187312</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>164674</v>
+        <v>164082</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>210625</v>
+        <v>212465</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2692855216368479</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.236741695771163</v>
+        <v>0.2358906076698593</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3028012705537322</v>
+        <v>0.3054468819557877</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>82</v>
@@ -8460,19 +8460,19 @@
         <v>90058</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>73133</v>
+        <v>73445</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>107489</v>
+        <v>107868</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2361633340968285</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1917798341430424</v>
+        <v>0.1925965277174273</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2818730259142696</v>
+        <v>0.2828659501391661</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>271</v>
@@ -8481,19 +8481,19 @@
         <v>277370</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>249372</v>
+        <v>250355</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>309880</v>
+        <v>310067</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.257556977856576</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.231559114588615</v>
+        <v>0.2324721578205028</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.287745646540759</v>
+        <v>0.2879188412532255</v>
       </c>
     </row>
     <row r="36">
@@ -8510,19 +8510,19 @@
         <v>216922</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>188896</v>
+        <v>189969</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>239625</v>
+        <v>244320</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3118538789424917</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2715640014887248</v>
+        <v>0.2731057950474647</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3444932728065597</v>
+        <v>0.3512426798161484</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>140</v>
@@ -8531,19 +8531,19 @@
         <v>147528</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>128613</v>
+        <v>129536</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>165727</v>
+        <v>167119</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3868673041122207</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3372666096800331</v>
+        <v>0.3396865808478297</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4345928205798967</v>
+        <v>0.43824197716438</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>343</v>
@@ -8552,19 +8552,19 @@
         <v>364449</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>331012</v>
+        <v>333897</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>394987</v>
+        <v>396431</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3384160810962084</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3073675321701249</v>
+        <v>0.3100469428231498</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3667733125174319</v>
+        <v>0.3681137290295206</v>
       </c>
     </row>
     <row r="37">
@@ -8581,19 +8581,19 @@
         <v>162793</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>143915</v>
+        <v>141283</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>188253</v>
+        <v>185753</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2340364976803158</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2068965175451543</v>
+        <v>0.2031136499220758</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2706394286929741</v>
+        <v>0.2670454791690278</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>118</v>
@@ -8602,19 +8602,19 @@
         <v>120589</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>102580</v>
+        <v>102760</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>137246</v>
+        <v>139081</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3162239911380618</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2689999798286102</v>
+        <v>0.2694713006000528</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3599045266846018</v>
+        <v>0.3647175894641397</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>270</v>
@@ -8623,19 +8623,19 @@
         <v>283381</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>251942</v>
+        <v>256546</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>311561</v>
+        <v>312269</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2631390324704867</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2339457487359623</v>
+        <v>0.2382209712624606</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2893061257604759</v>
+        <v>0.289963545978342</v>
       </c>
     </row>
     <row r="38">
@@ -8969,19 +8969,19 @@
         <v>41260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31748</v>
+        <v>32010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51703</v>
+        <v>52166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3180989014751929</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.244768346043741</v>
+        <v>0.2467844456614994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3986102068409265</v>
+        <v>0.4021810452717274</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -8990,19 +8990,19 @@
         <v>19345</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13755</v>
+        <v>14345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26137</v>
+        <v>25862</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2786437349788007</v>
+        <v>0.2786437349788006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1981206226779547</v>
+        <v>0.2066278979249718</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3764850121433508</v>
+        <v>0.372521519007983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -9011,19 +9011,19 @@
         <v>60604</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48384</v>
+        <v>48920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72024</v>
+        <v>73646</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3043433398338355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2429764231928751</v>
+        <v>0.2456651427541258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3616930851707504</v>
+        <v>0.3698385049542506</v>
       </c>
     </row>
     <row r="5">
@@ -9040,19 +9040,19 @@
         <v>37498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28171</v>
+        <v>27756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47316</v>
+        <v>49665</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2890947351708282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2171904432770358</v>
+        <v>0.2139864199284723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3647900847686225</v>
+        <v>0.3828976747184186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -9061,19 +9061,19 @@
         <v>17566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12263</v>
+        <v>11987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23690</v>
+        <v>23646</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2530175121529202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1766343060094357</v>
+        <v>0.1726683167018277</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3412272941478889</v>
+        <v>0.3405945949799014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -9082,19 +9082,19 @@
         <v>55063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42485</v>
+        <v>44321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66818</v>
+        <v>67765</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2765168522434501</v>
+        <v>0.2765168522434502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2133513823613181</v>
+        <v>0.2225705458099635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3355491190219867</v>
+        <v>0.3403044342332721</v>
       </c>
     </row>
     <row r="6">
@@ -9111,19 +9111,19 @@
         <v>31817</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22429</v>
+        <v>22599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43669</v>
+        <v>44048</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2453009369461948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1729208131860243</v>
+        <v>0.1742328896157106</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3366733866465572</v>
+        <v>0.3395923182562775</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -9132,19 +9132,19 @@
         <v>16816</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11590</v>
+        <v>11250</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23004</v>
+        <v>22837</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2422232761910086</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1669429359263753</v>
+        <v>0.1620408483002416</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3313559279020568</v>
+        <v>0.3289461174323983</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -9153,19 +9153,19 @@
         <v>48633</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37496</v>
+        <v>37787</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61976</v>
+        <v>61629</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2442279481341206</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1882973670868297</v>
+        <v>0.1897583668927461</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3112344262241775</v>
+        <v>0.3094906085863133</v>
       </c>
     </row>
     <row r="7">
@@ -9182,19 +9182,19 @@
         <v>19132</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10958</v>
+        <v>10696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31529</v>
+        <v>32651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1475054264077842</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08448434732779456</v>
+        <v>0.08246239129768132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2430790624829122</v>
+        <v>0.2517294175921579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -9203,19 +9203,19 @@
         <v>15698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10137</v>
+        <v>10240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22646</v>
+        <v>22217</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2261154766772706</v>
+        <v>0.2261154766772704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.146020718694589</v>
+        <v>0.14749240118808</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3261991758243624</v>
+        <v>0.3200190010894445</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -9224,19 +9224,19 @@
         <v>34830</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24460</v>
+        <v>24360</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48817</v>
+        <v>48597</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1749118597885937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1228334334470246</v>
+        <v>0.1223311637012051</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2451493033655248</v>
+        <v>0.2440431113284182</v>
       </c>
     </row>
     <row r="8">
@@ -9328,19 +9328,19 @@
         <v>26989</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19074</v>
+        <v>19417</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35097</v>
+        <v>35565</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2654100676278103</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1875765660498737</v>
+        <v>0.1909496613893606</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3451437491945261</v>
+        <v>0.3497455402334821</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -9349,19 +9349,19 @@
         <v>13523</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8319</v>
+        <v>8684</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19393</v>
+        <v>19175</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.217840189040253</v>
+        <v>0.2178401890402531</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1340089044715376</v>
+        <v>0.1398809559315015</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3124042060068333</v>
+        <v>0.3088893489788866</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>57</v>
@@ -9370,19 +9370,19 @@
         <v>40512</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31118</v>
+        <v>31443</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>51447</v>
+        <v>50949</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2473779415599675</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1900148093974874</v>
+        <v>0.1920027910393173</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.314149297781527</v>
+        <v>0.3111088348598472</v>
       </c>
     </row>
     <row r="10">
@@ -9399,19 +9399,19 @@
         <v>32519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24615</v>
+        <v>23730</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41447</v>
+        <v>42068</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.319798214744664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2420702381818212</v>
+        <v>0.2333644152858974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.407589119808286</v>
+        <v>0.4137053881464052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -9420,19 +9420,19 @@
         <v>17990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12911</v>
+        <v>12583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25258</v>
+        <v>24967</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2897913179317814</v>
+        <v>0.2897913179317815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2079861289389401</v>
+        <v>0.2026992022108362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4068727605328726</v>
+        <v>0.4021939201772138</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -9441,19 +9441,19 @@
         <v>50509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40427</v>
+        <v>39693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62307</v>
+        <v>62970</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3084236188385861</v>
+        <v>0.308423618838586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.246857130330723</v>
+        <v>0.2423758814246343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3804674442078342</v>
+        <v>0.3845168313292802</v>
       </c>
     </row>
     <row r="11">
@@ -9470,19 +9470,19 @@
         <v>24700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17286</v>
+        <v>16576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34966</v>
+        <v>33876</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2428987210852966</v>
+        <v>0.2428987210852967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1699959876118699</v>
+        <v>0.1630144433519957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3438558129521739</v>
+        <v>0.3331388453248165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -9491,19 +9491,19 @@
         <v>13061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7942</v>
+        <v>8486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19591</v>
+        <v>19281</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2103914364539158</v>
+        <v>0.210391436453916</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1279426410735356</v>
+        <v>0.1367061505467069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3155854920634269</v>
+        <v>0.3105905575421565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -9512,19 +9512,19 @@
         <v>37760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28389</v>
+        <v>28601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48934</v>
+        <v>49346</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2305763130405212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1733505274974986</v>
+        <v>0.1746466736405557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2988057721533955</v>
+        <v>0.3013206734649298</v>
       </c>
     </row>
     <row r="12">
@@ -9541,19 +9541,19 @@
         <v>17479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11071</v>
+        <v>10730</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25731</v>
+        <v>25488</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1718929965422292</v>
+        <v>0.1718929965422291</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1088738942527388</v>
+        <v>0.1055187996710961</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2530408983545854</v>
+        <v>0.2506532104781392</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -9562,19 +9562,19 @@
         <v>17505</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11544</v>
+        <v>11796</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25247</v>
+        <v>24238</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2819770565740495</v>
+        <v>0.2819770565740496</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1859526076479214</v>
+        <v>0.1900183719009012</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4066952100349614</v>
+        <v>0.3904419767141054</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -9583,19 +9583,19 @@
         <v>34984</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26235</v>
+        <v>25670</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45952</v>
+        <v>44907</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2136221265609252</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.160197393570881</v>
+        <v>0.156749080209647</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2805960024175256</v>
+        <v>0.2742175738104918</v>
       </c>
     </row>
     <row r="13">
@@ -9687,19 +9687,19 @@
         <v>26673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19102</v>
+        <v>19926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35373</v>
+        <v>36180</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2526043670359902</v>
+        <v>0.2526043670359903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1809011963263684</v>
+        <v>0.1887036192567699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3349970591980616</v>
+        <v>0.3426360894244243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -9708,19 +9708,19 @@
         <v>2396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>798</v>
+        <v>860</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4960</v>
+        <v>5274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1056552054710354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0351799002706039</v>
+        <v>0.0379285297537191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2186755191284937</v>
+        <v>0.2325014229962402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -9729,19 +9729,19 @@
         <v>29069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20383</v>
+        <v>21407</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38040</v>
+        <v>37762</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2266204921268433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1589067073046533</v>
+        <v>0.1668883657390779</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2965512556665719</v>
+        <v>0.294386501226261</v>
       </c>
     </row>
     <row r="15">
@@ -9758,19 +9758,19 @@
         <v>40418</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31215</v>
+        <v>30756</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50041</v>
+        <v>50095</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3827751637945948</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2956183423407367</v>
+        <v>0.2912703817144912</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4739042929451633</v>
+        <v>0.4744185412313562</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -9779,19 +9779,19 @@
         <v>8726</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5103</v>
+        <v>5141</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12411</v>
+        <v>12517</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3847041182535388</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2249692707583079</v>
+        <v>0.2266531524666151</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5471623799448169</v>
+        <v>0.5518523575057669</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>60</v>
@@ -9800,19 +9800,19 @@
         <v>49143</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>38312</v>
+        <v>39321</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>59030</v>
+        <v>59797</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3831162457771856</v>
+        <v>0.3831162457771857</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2986768316163919</v>
+        <v>0.3065417743328476</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4601879501626548</v>
+        <v>0.4661674830107008</v>
       </c>
     </row>
     <row r="16">
@@ -9829,19 +9829,19 @@
         <v>26450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18486</v>
+        <v>18807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35248</v>
+        <v>36205</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.250495051147829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1750677369900775</v>
+        <v>0.1781124007156185</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3338085650723931</v>
+        <v>0.3428809733207123</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -9850,19 +9850,19 @@
         <v>6196</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3346</v>
+        <v>3304</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10108</v>
+        <v>10035</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2731722880134551</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1475207111867236</v>
+        <v>0.1456859675849032</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4456450447771404</v>
+        <v>0.4424158998802688</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -9871,19 +9871,19 @@
         <v>32646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23648</v>
+        <v>24119</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42411</v>
+        <v>42844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2545048901950635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1843529181140213</v>
+        <v>0.1880264175136571</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3306292766126321</v>
+        <v>0.3340046641507353</v>
       </c>
     </row>
     <row r="17">
@@ -9900,19 +9900,19 @@
         <v>12051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6838</v>
+        <v>6495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19268</v>
+        <v>19677</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1141254180215859</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06476317559141406</v>
+        <v>0.06150969746568373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1824752117641547</v>
+        <v>0.1863502713047908</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -9921,19 +9921,19 @@
         <v>5364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2277</v>
+        <v>2241</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10073</v>
+        <v>9739</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2364683882619706</v>
+        <v>0.2364683882619705</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1003964517253032</v>
+        <v>0.09881372732916842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4440827564902075</v>
+        <v>0.4293871593342686</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -9942,19 +9942,19 @@
         <v>17414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10875</v>
+        <v>10982</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26174</v>
+        <v>26539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1357583719009075</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08478021174677905</v>
+        <v>0.08561364660541261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2040500333901465</v>
+        <v>0.2068976749197374</v>
       </c>
     </row>
     <row r="18">
@@ -10046,19 +10046,19 @@
         <v>65267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53409</v>
+        <v>53825</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77963</v>
+        <v>78753</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3138927374761309</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2568641370429984</v>
+        <v>0.2588637930978172</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3749522342061881</v>
+        <v>0.3787550727576663</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -10067,19 +10067,19 @@
         <v>13512</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8884</v>
+        <v>8775</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19714</v>
+        <v>19352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1621659052760263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1066212600844954</v>
+        <v>0.1053176055990643</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2366002599548538</v>
+        <v>0.2322482201676694</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -10088,19 +10088,19 @@
         <v>78779</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64947</v>
+        <v>65655</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92716</v>
+        <v>92071</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2704857225880819</v>
+        <v>0.270485722588082</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2229938474668522</v>
+        <v>0.2254234055811305</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3183394047781994</v>
+        <v>0.3161228505986157</v>
       </c>
     </row>
     <row r="20">
@@ -10117,19 +10117,19 @@
         <v>59860</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47990</v>
+        <v>47299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72789</v>
+        <v>71395</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2878908913639061</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2308005424589671</v>
+        <v>0.2274797303034725</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3500704337941031</v>
+        <v>0.3433676588535721</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -10138,19 +10138,19 @@
         <v>20370</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14171</v>
+        <v>13858</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27843</v>
+        <v>27376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2444754524157055</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1700746703431838</v>
+        <v>0.1663138716997598</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3341596336723057</v>
+        <v>0.3285543428309999</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>103</v>
@@ -10159,19 +10159,19 @@
         <v>80231</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>67859</v>
+        <v>67119</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94795</v>
+        <v>94049</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2754703156656649</v>
+        <v>0.275470315665665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2329933030520573</v>
+        <v>0.2304524297821669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3254758907322762</v>
+        <v>0.3229159395391479</v>
       </c>
     </row>
     <row r="21">
@@ -10188,19 +10188,19 @@
         <v>51425</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39936</v>
+        <v>39871</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63534</v>
+        <v>63519</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2473201465568843</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1920672462560494</v>
+        <v>0.1917526009318833</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3055577812430686</v>
+        <v>0.3054852242700428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -10209,19 +10209,19 @@
         <v>23568</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17162</v>
+        <v>16862</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30977</v>
+        <v>30810</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2828520862420272</v>
+        <v>0.2828520862420273</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2059662524907908</v>
+        <v>0.2023749077716704</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3717698236951839</v>
+        <v>0.3697710012336114</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>89</v>
@@ -10230,19 +10230,19 @@
         <v>74993</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>63173</v>
+        <v>60573</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>90484</v>
+        <v>90031</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2574853586854823</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2169015740183362</v>
+        <v>0.2079754040569168</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3106756998582327</v>
+        <v>0.3091203171747709</v>
       </c>
     </row>
     <row r="22">
@@ -10259,19 +10259,19 @@
         <v>31375</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22395</v>
+        <v>22305</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44168</v>
+        <v>44682</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1508962246030786</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1077082589399191</v>
+        <v>0.1072748374607358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2124228806865417</v>
+        <v>0.2148912170762349</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -10280,19 +10280,19 @@
         <v>25872</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19055</v>
+        <v>18461</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34414</v>
+        <v>33475</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3105065560662407</v>
+        <v>0.3105065560662408</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2286871880774527</v>
+        <v>0.2215559534565995</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4130228640518303</v>
+        <v>0.4017441654824314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -10301,19 +10301,19 @@
         <v>57248</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44929</v>
+        <v>44794</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70754</v>
+        <v>72092</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1965586030607707</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1542641502763057</v>
+        <v>0.1537998709279383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2429313189935837</v>
+        <v>0.2475258410556329</v>
       </c>
     </row>
     <row r="23">
@@ -10405,19 +10405,19 @@
         <v>25609</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18687</v>
+        <v>18152</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33961</v>
+        <v>33736</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2784201841518004</v>
+        <v>0.2784201841518003</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2031704907688548</v>
+        <v>0.1973514621553394</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.369225495010839</v>
+        <v>0.3667844740514696</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -10426,19 +10426,19 @@
         <v>13995</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9029</v>
+        <v>8752</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20255</v>
+        <v>19780</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1763034810515567</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1137422038783057</v>
+        <v>0.1102552188694563</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2551557557206576</v>
+        <v>0.2491735128941708</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>56</v>
@@ -10447,19 +10447,19 @@
         <v>39604</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30046</v>
+        <v>30828</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49521</v>
+        <v>51082</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2311145128917656</v>
+        <v>0.2311145128917655</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1753371746348582</v>
+        <v>0.1798991191542885</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2889869799910818</v>
+        <v>0.2980987039584234</v>
       </c>
     </row>
     <row r="25">
@@ -10476,19 +10476,19 @@
         <v>34713</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26293</v>
+        <v>25585</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44157</v>
+        <v>45334</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3774066974664776</v>
+        <v>0.3774066974664775</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2858603152848728</v>
+        <v>0.2781596648242083</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4800827677121111</v>
+        <v>0.4928788440199993</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -10497,19 +10497,19 @@
         <v>21351</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15376</v>
+        <v>14825</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28111</v>
+        <v>28544</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2689602366639678</v>
+        <v>0.2689602366639679</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1936992779755906</v>
+        <v>0.1867493677246133</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3541230838500387</v>
+        <v>0.3595779128972527</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -10518,19 +10518,19 @@
         <v>56064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45202</v>
+        <v>44880</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67693</v>
+        <v>67646</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3271687592224106</v>
+        <v>0.3271687592224105</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2637816517089334</v>
+        <v>0.2619032789739505</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3950340035677193</v>
+        <v>0.3947596271786782</v>
       </c>
     </row>
     <row r="26">
@@ -10547,19 +10547,19 @@
         <v>15956</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9817</v>
+        <v>9779</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23643</v>
+        <v>23927</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1734797606712528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1067276995260106</v>
+        <v>0.1063215289542069</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2570518861052525</v>
+        <v>0.260135759641299</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -10568,19 +10568,19 @@
         <v>19485</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13648</v>
+        <v>13265</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26821</v>
+        <v>27250</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2454533253133326</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1719210453369929</v>
+        <v>0.1671064417439376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3378718423741252</v>
+        <v>0.3432746392920884</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -10589,19 +10589,19 @@
         <v>35441</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26507</v>
+        <v>26264</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46651</v>
+        <v>45616</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2068215909987438</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1546872514005676</v>
+        <v>0.1532659868445711</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2722390576516904</v>
+        <v>0.266199937703482</v>
       </c>
     </row>
     <row r="27">
@@ -10618,19 +10618,19 @@
         <v>15700</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8759</v>
+        <v>9551</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23018</v>
+        <v>23710</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1706933577104693</v>
+        <v>0.1706933577104692</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09523162081208805</v>
+        <v>0.1038418216554116</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2502591779673326</v>
+        <v>0.2577749526285669</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>30</v>
@@ -10639,19 +10639,19 @@
         <v>24552</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17615</v>
+        <v>17671</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32734</v>
+        <v>33069</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3092829569711425</v>
+        <v>0.3092829569711424</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.22189955443703</v>
+        <v>0.2226063014509932</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4123524266472577</v>
+        <v>0.4165758559259334</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>47</v>
@@ -10660,19 +10660,19 @@
         <v>40252</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30431</v>
+        <v>30254</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>53160</v>
+        <v>52172</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.2348951368870802</v>
+        <v>0.23489513688708</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1775860278219664</v>
+        <v>0.1765506261146652</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3102227103563721</v>
+        <v>0.304457715753627</v>
       </c>
     </row>
     <row r="28">
@@ -10767,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4094</v>
+        <v>3221</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08555611068311372</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6141157102257073</v>
+        <v>0.4832260648146916</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -10785,19 +10785,19 @@
         <v>9439</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5460</v>
+        <v>5878</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13821</v>
+        <v>14285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2512028470749402</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1452888263175822</v>
+        <v>0.1564254624377609</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3678149618686657</v>
+        <v>0.3801659509340466</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -10806,19 +10806,19 @@
         <v>10010</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5930</v>
+        <v>6034</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15060</v>
+        <v>14392</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2262465660779489</v>
+        <v>0.226246566077949</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1340352514675339</v>
+        <v>0.1363862026340641</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3403965339374738</v>
+        <v>0.3253033619309722</v>
       </c>
     </row>
     <row r="30">
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4941</v>
+        <v>5345</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2270687641058209</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7412376475468232</v>
+        <v>0.8018349135780556</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -10856,19 +10856,19 @@
         <v>10695</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6920</v>
+        <v>6655</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15385</v>
+        <v>15688</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2846114825339849</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1841551191293284</v>
+        <v>0.1770995132505489</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4094223390595428</v>
+        <v>0.4174861269839314</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -10877,19 +10877,19 @@
         <v>12209</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7828</v>
+        <v>7838</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18069</v>
+        <v>18138</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2759421161359225</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1769405892921238</v>
+        <v>0.1771597435306597</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.408409283017593</v>
+        <v>0.4099537684164567</v>
       </c>
     </row>
     <row r="31">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4714</v>
+        <v>4765</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.215039338398753</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7071995146843909</v>
+        <v>0.7147599439986223</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -10927,19 +10927,19 @@
         <v>9661</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5620</v>
+        <v>5622</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14582</v>
+        <v>14376</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2570890105849326</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1495550746623145</v>
+        <v>0.1496053704706944</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.388048971667717</v>
+        <v>0.3825623041444943</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -10948,19 +10948,19 @@
         <v>11094</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6979</v>
+        <v>7228</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>16345</v>
+        <v>16790</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2507538212671825</v>
+        <v>0.2507538212671824</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1577405757899255</v>
+        <v>0.1633609992416312</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3694360272024643</v>
+        <v>0.3794987537469251</v>
       </c>
     </row>
     <row r="32">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5703</v>
+        <v>5896</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4723357868123122</v>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8555098340696932</v>
+        <v>0.8845575967175178</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -10998,19 +10998,19 @@
         <v>7782</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4313</v>
+        <v>3813</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13070</v>
+        <v>13299</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2070966598061422</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1147888756887286</v>
+        <v>0.1014678564787347</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3478219099709238</v>
+        <v>0.353902526077857</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -11019,19 +11019,19 @@
         <v>10931</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5734</v>
+        <v>5983</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17402</v>
+        <v>17502</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2470574965189461</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1296074689260143</v>
+        <v>0.1352195083348759</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3933236798870848</v>
+        <v>0.3955875499911596</v>
       </c>
     </row>
     <row r="33">
@@ -11123,19 +11123,19 @@
         <v>186367</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>163651</v>
+        <v>165259</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>206747</v>
+        <v>207291</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2895891209274025</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2542912582835717</v>
+        <v>0.2567893547866982</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3212568755787918</v>
+        <v>0.3221025539057102</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>116</v>
@@ -11144,19 +11144,19 @@
         <v>72211</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>60124</v>
+        <v>59857</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>84905</v>
+        <v>85003</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2037180645386532</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1696194520994254</v>
+        <v>0.168863901103853</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.239529152091754</v>
+        <v>0.2398062907607337</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>360</v>
@@ -11165,19 +11165,19 @@
         <v>258578</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>234559</v>
+        <v>236571</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>282770</v>
+        <v>283842</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2590903685810211</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2350234466414279</v>
+        <v>0.2370390113313594</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2833297198583886</v>
+        <v>0.2844043446155566</v>
       </c>
     </row>
     <row r="35">
@@ -11194,19 +11194,19 @@
         <v>206522</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>185290</v>
+        <v>184035</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>228568</v>
+        <v>229817</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3209070563124391</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2879155501412792</v>
+        <v>0.2859656762296587</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3551635600944191</v>
+        <v>0.3571046897170702</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>147</v>
@@ -11215,19 +11215,19 @@
         <v>96697</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>83266</v>
+        <v>83409</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>110562</v>
+        <v>109980</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2727957854158499</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2349056239091666</v>
+        <v>0.2353070191752588</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3119118918428665</v>
+        <v>0.3102693167058161</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>386</v>
@@ -11236,19 +11236,19 @@
         <v>303219</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>278262</v>
+        <v>277709</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>329276</v>
+        <v>329883</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3038194158681207</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2788133207661329</v>
+        <v>0.2782584366097855</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3299281355154464</v>
+        <v>0.3305358983924219</v>
       </c>
     </row>
     <row r="36">
@@ -11265,19 +11265,19 @@
         <v>151781</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>130483</v>
+        <v>128951</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>173045</v>
+        <v>174208</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2358477892226102</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2027521254977624</v>
+        <v>0.2003730427093209</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2688884607634977</v>
+        <v>0.270695875594607</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>126</v>
@@ -11286,19 +11286,19 @@
         <v>88786</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>75826</v>
+        <v>76253</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>102374</v>
+        <v>103711</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2504786272919756</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2139144925841641</v>
+        <v>0.2151195662604199</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2888102907841442</v>
+        <v>0.2925818483926666</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>287</v>
@@ -11307,19 +11307,19 @@
         <v>240568</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>216220</v>
+        <v>217129</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>265848</v>
+        <v>266713</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2410442119250104</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2166485490455758</v>
+        <v>0.2175589342511622</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2663745815479679</v>
+        <v>0.2672412186206253</v>
       </c>
     </row>
     <row r="37">
@@ -11336,19 +11336,19 @@
         <v>98886</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>81505</v>
+        <v>81528</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>118719</v>
+        <v>121605</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1536560335375482</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.12664800036874</v>
+        <v>0.1266833895561353</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.184472500270612</v>
+        <v>0.1889575134241943</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>122</v>
@@ -11357,19 +11357,19 @@
         <v>96772</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>81611</v>
+        <v>82045</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>112014</v>
+        <v>111752</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2730075227535214</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2302370448664961</v>
+        <v>0.2314615148340174</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.316005846546391</v>
+        <v>0.3152666841137565</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>219</v>
@@ -11378,19 +11378,19 @@
         <v>195659</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>172031</v>
+        <v>173000</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>223035</v>
+        <v>222537</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1960460036258478</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1723717222339074</v>
+        <v>0.1733428567988722</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2234768968256891</v>
+        <v>0.2229776596561033</v>
       </c>
     </row>
     <row r="38">
